--- a/GroceryApplication/src/test/resources/Testdata.xlsx
+++ b/GroceryApplication/src/test/resources/Testdata.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd816cc4e602564d/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{90F1E85C-6E3E-4B1D-BBB1-BA7D0A23AEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A92240D-6CAC-4C6F-ACD7-39CF1010033A}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{90F1E85C-6E3E-4B1D-BBB1-BA7D0A23AEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6094662-0FD6-41DB-842C-411664E973E3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUserPage" sheetId="3" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -35,18 +37,37 @@
   <si>
     <t>test1</t>
   </si>
+  <si>
+    <t>News added for validation</t>
+  </si>
+  <si>
+    <t>scotty.blick</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,6 +109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,7 +380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -394,4 +421,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F287FA-0ADD-4C99-B8ED-0B007C70C8E4}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E7F525-B346-475B-8B6A-4FAE70208825}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>